--- a/local.xlsx
+++ b/local.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xeadmin/Documents/test/working/medolo poc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE47863-94C4-7943-9FD4-88A19F8CE485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EACE906-0421-8E4E-95B5-A6E60099E1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="2" r:id="rId1"/>
+    <sheet name="b" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>Co-Create</t>
   </si>
@@ -188,6 +189,18 @@
   </si>
   <si>
     <t>কপিরাইট</t>
+  </si>
+  <si>
+    <t>english_EN</t>
+  </si>
+  <si>
+    <t>hindi_HI</t>
+  </si>
+  <si>
+    <t>bengali_BN</t>
+  </si>
+  <si>
+    <t>nepali_NP</t>
   </si>
 </sst>
 </file>
@@ -587,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="125" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,4 +821,226 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97E079B-0850-8E47-A36F-F655D8752FB4}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>